--- a/aaa.xlsx
+++ b/aaa.xlsx
@@ -1,90 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81803\OneDrive\デスクトップ\versear\pythonpractice\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B94A708-87E0-4052-B6F9-70627C0626E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="8268" yWindow="552" windowWidth="14568" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8268" yWindow="552" windowWidth="14568" windowHeight="10632" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="生徒一覧" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="生徒一覧" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$46</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
-  <si>
-    <t>生徒番号</t>
-  </si>
-  <si>
-    <t>生徒氏名</t>
-  </si>
-  <si>
-    <t>座席番号</t>
-  </si>
-  <si>
-    <t>ヤマダ　タロウ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タナカ　ジロウ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スズキ　ハナコ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サトウ　ノブコ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,31 +52,91 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -424,491 +436,537 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="B2:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col width="9.5" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="17.19921875" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C3" s="1" t="e">
-        <f>VLOOKUP(B3,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D3">
+    <row r="2">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>生徒番号</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>生徒氏名</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>座席番号</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="1" t="n">
+        <v>50352482</v>
+      </c>
+      <c r="C3" s="1">
+        <f>VLOOKUP(B3,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C4" s="1" t="e">
-        <f>VLOOKUP(B4,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D4">
+    <row r="4">
+      <c r="B4" s="1" t="n">
+        <v>98765432</v>
+      </c>
+      <c r="C4" s="1">
+        <f>VLOOKUP(B4,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C5" s="1" t="e">
-        <f>VLOOKUP(B5,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D5">
+    <row r="5">
+      <c r="B5" s="1" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="C5" s="1">
+        <f>VLOOKUP(B5,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C6" s="1" t="e">
-        <f>VLOOKUP(B6,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D6">
+    <row r="6">
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1">
+        <f>VLOOKUP(B6,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D6" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C7" s="1" t="e">
-        <f>VLOOKUP(B7,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D7">
+    <row r="7">
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1">
+        <f>VLOOKUP(B7,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C8" s="1" t="e">
-        <f>VLOOKUP(B8,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D8">
+    <row r="8">
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1">
+        <f>VLOOKUP(B8,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C9" s="1" t="e">
-        <f>VLOOKUP(B9,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D9">
+    <row r="9">
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1">
+        <f>VLOOKUP(B9,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D9" s="1" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C10" s="1" t="e">
-        <f>VLOOKUP(B10,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D10">
+    <row r="10">
+      <c r="C10" s="1">
+        <f>VLOOKUP(B10,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D10" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C11" s="1" t="e">
-        <f>VLOOKUP(B11,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D11">
+    <row r="11">
+      <c r="C11" s="1">
+        <f>VLOOKUP(B11,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D11" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C12" s="1" t="e">
-        <f>VLOOKUP(B12,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D12">
+    <row r="12">
+      <c r="C12" s="1">
+        <f>VLOOKUP(B12,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D12" s="1" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C13" s="1" t="e">
-        <f>VLOOKUP(B13,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D13">
+    <row r="13">
+      <c r="C13" s="1">
+        <f>VLOOKUP(B13,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D13" s="1" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C14" s="1" t="e">
-        <f>VLOOKUP(B14,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D14">
+    <row r="14">
+      <c r="C14" s="1">
+        <f>VLOOKUP(B14,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D14" s="1" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C15" s="1" t="e">
-        <f>VLOOKUP(B15,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D15">
+    <row r="15">
+      <c r="C15" s="1">
+        <f>VLOOKUP(B15,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D15" s="1" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C16" s="1" t="e">
-        <f>VLOOKUP(B16,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D16">
+    <row r="16">
+      <c r="C16" s="1">
+        <f>VLOOKUP(B16,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D16" s="1" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C17" s="1" t="e">
-        <f>VLOOKUP(B17,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D17">
+    <row r="17">
+      <c r="C17" s="1">
+        <f>VLOOKUP(B17,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D17" s="1" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C18" s="1" t="e">
-        <f>VLOOKUP(B18,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D18">
+    <row r="18">
+      <c r="C18" s="1">
+        <f>VLOOKUP(B18,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D18" s="1" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C19" s="1" t="e">
-        <f>VLOOKUP(B19,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D19">
+    <row r="19">
+      <c r="C19" s="1">
+        <f>VLOOKUP(B19,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D19" s="1" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C20" s="1" t="e">
-        <f>VLOOKUP(B20,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D20">
+    <row r="20">
+      <c r="C20" s="1">
+        <f>VLOOKUP(B20,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D20" s="1" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C21" s="1" t="e">
-        <f>VLOOKUP(B21,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D21">
+    <row r="21">
+      <c r="C21" s="1">
+        <f>VLOOKUP(B21,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D21" s="1" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C22" s="1" t="e">
-        <f>VLOOKUP(B22,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D22">
+    <row r="22">
+      <c r="C22" s="1">
+        <f>VLOOKUP(B22,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D22" s="1" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C23" s="1" t="e">
-        <f>VLOOKUP(B23,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D23">
+    <row r="23">
+      <c r="C23" s="1">
+        <f>VLOOKUP(B23,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D23" s="1" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C24" s="1" t="e">
-        <f>VLOOKUP(B24,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D24">
+    <row r="24">
+      <c r="C24" s="1">
+        <f>VLOOKUP(B24,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D24" s="1" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C25" s="1" t="e">
-        <f>VLOOKUP(B25,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D25">
+    <row r="25">
+      <c r="C25" s="1">
+        <f>VLOOKUP(B25,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D25" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C26" s="1" t="e">
-        <f>VLOOKUP(B26,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D26">
+    <row r="26">
+      <c r="C26" s="1">
+        <f>VLOOKUP(B26,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D26" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C27" s="1" t="e">
-        <f>VLOOKUP(B27,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D27">
+    <row r="27">
+      <c r="C27" s="1">
+        <f>VLOOKUP(B27,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D27" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C28" s="1" t="e">
-        <f>VLOOKUP(B28,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D28">
+    <row r="28">
+      <c r="C28" s="1">
+        <f>VLOOKUP(B28,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D28" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C29" s="1" t="e">
-        <f>VLOOKUP(B29,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D29">
+    <row r="29">
+      <c r="C29" s="1">
+        <f>VLOOKUP(B29,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D29" s="1" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C30" s="1" t="e">
-        <f>VLOOKUP(B30,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D30">
+    <row r="30">
+      <c r="C30" s="1">
+        <f>VLOOKUP(B30,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D30" s="1" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C31" s="1" t="e">
-        <f>VLOOKUP(B31,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D31">
+    <row r="31">
+      <c r="C31" s="1">
+        <f>VLOOKUP(B31,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D31" s="1" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C32" s="1" t="e">
-        <f>VLOOKUP(B32,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D32">
+    <row r="32">
+      <c r="C32" s="1">
+        <f>VLOOKUP(B32,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D32" s="1" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C33" s="1" t="e">
-        <f>VLOOKUP(B33,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D33">
+    <row r="33">
+      <c r="C33" s="1">
+        <f>VLOOKUP(B33,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D33" s="1" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C34" s="1" t="e">
-        <f>VLOOKUP(B34,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D34">
+    <row r="34">
+      <c r="C34" s="1">
+        <f>VLOOKUP(B34,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D34" s="1" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C35" s="1" t="e">
-        <f>VLOOKUP(B35,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D35">
+    <row r="35">
+      <c r="C35" s="1">
+        <f>VLOOKUP(B35,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D35" s="1" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C36" s="1" t="e">
-        <f>VLOOKUP(B36,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D36">
+    <row r="36">
+      <c r="C36" s="1">
+        <f>VLOOKUP(B36,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D36" s="1" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C37" s="1" t="e">
-        <f>VLOOKUP(B37,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D37">
+    <row r="37">
+      <c r="C37" s="1">
+        <f>VLOOKUP(B37,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D37" s="1" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C38" s="1" t="e">
-        <f>VLOOKUP(B38,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D38">
+    <row r="38">
+      <c r="C38" s="1">
+        <f>VLOOKUP(B38,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D38" s="1" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C39" s="1" t="e">
-        <f>VLOOKUP(B39,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D39">
+    <row r="39">
+      <c r="C39" s="1">
+        <f>VLOOKUP(B39,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D39" s="1" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C40" s="1" t="e">
-        <f>VLOOKUP(B40,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D40">
+    <row r="40">
+      <c r="C40" s="1">
+        <f>VLOOKUP(B40,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D40" s="1" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C41" s="1" t="e">
-        <f>VLOOKUP(B41,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D41">
+    <row r="41">
+      <c r="C41" s="1">
+        <f>VLOOKUP(B41,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D41" s="1" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C42" s="1" t="e">
-        <f>VLOOKUP(B42,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D42">
+    <row r="42">
+      <c r="C42" s="1">
+        <f>VLOOKUP(B42,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D42" s="1" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C43" s="1" t="e">
-        <f>VLOOKUP(B43,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D43">
+    <row r="43">
+      <c r="C43" s="1">
+        <f>VLOOKUP(B43,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D43" s="1" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C44" s="1" t="e">
-        <f>VLOOKUP(B44,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D44">
+    <row r="44">
+      <c r="C44" s="1">
+        <f>VLOOKUP(B44,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D44" s="1" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C45" s="1" t="e">
-        <f>VLOOKUP(B45,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D45">
+    <row r="45">
+      <c r="C45" s="1">
+        <f>VLOOKUP(B45,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D45" s="1" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C46" s="1" t="e">
-        <f>VLOOKUP(B46,生徒一覧!$B$3:$C$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D46">
+    <row r="46">
+      <c r="C46" s="1">
+        <f>VLOOKUP(B46,生徒一覧!$B$3:$C$7,2,0)</f>
+        <v/>
+      </c>
+      <c r="D46" s="1" t="n">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:C46" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:C46">
-      <sortCondition ref="C2:C46"/>
-    </sortState>
-  </autoFilter>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col width="9.3984375" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="14.3984375" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B3">
-        <v>123456</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>987654</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>147852</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>963258</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
+    <row r="2">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>生徒番号</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>生徒氏名</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="1" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>ヤマダ　タロウ</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="1" t="n">
+        <v>98765432</v>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>タナカ　ジロウ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="1" t="n">
+        <v>14785236</v>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>スズキ　ハナコ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="n">
+        <v>96325874</v>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>サトウ　ノブコ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="1" t="n">
+        <v>50352482</v>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>フクハラ　カイト</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/aaa.xlsx
+++ b/aaa.xlsx
@@ -1,42 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81803\OneDrive\デスクトップ\versear\pythonpractice\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57C64AB-CCBB-4A51-9D0E-E7BB88DE95B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8268" yWindow="552" windowWidth="14568" windowHeight="10632" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="8268" yWindow="552" windowWidth="14568" windowHeight="10632" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="生徒一覧" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="生徒一覧" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t>生徒番号</t>
+  </si>
+  <si>
+    <t>生徒氏名</t>
+  </si>
+  <si>
+    <t>座席番号</t>
+  </si>
+  <si>
+    <t>ヤマダ　タロウ</t>
+  </si>
+  <si>
+    <t>タナカ　ジロウ</t>
+  </si>
+  <si>
+    <t>スズキ　ハナコ</t>
+  </si>
+  <si>
+    <t>サトウ　ノブコ</t>
+  </si>
+  <si>
+    <t>ヤマモト　ダイチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="6"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <sz val="6"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -52,91 +97,32 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -436,537 +422,505 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col width="9.5" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="17.19921875" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>生徒番号</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>生徒氏名</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>座席番号</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="1" t="n">
-        <v>50352482</v>
-      </c>
-      <c r="C3" s="1">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="e">
         <f>VLOOKUP(B3,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D3" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="1" t="n">
-        <v>98765432</v>
-      </c>
-      <c r="C4" s="1">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="e">
         <f>VLOOKUP(B4,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D4" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="1" t="n">
-        <v>12345678</v>
-      </c>
-      <c r="C5" s="1">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="e">
         <f>VLOOKUP(B5,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D5" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="e">
         <f>VLOOKUP(B6,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D6" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="e">
         <f>VLOOKUP(B7,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D7" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="e">
         <f>VLOOKUP(B8,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D8" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="e">
         <f>VLOOKUP(B9,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D9" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="10">
-      <c r="C10" s="1">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C10" s="1" t="e">
         <f>VLOOKUP(B10,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D10" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D10" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="11">
-      <c r="C11" s="1">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C11" s="1" t="e">
         <f>VLOOKUP(B11,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D11" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="12">
-      <c r="C12" s="1">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C12" s="1" t="e">
         <f>VLOOKUP(B12,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D12" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="13">
-      <c r="C13" s="1">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C13" s="1" t="e">
         <f>VLOOKUP(B13,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D13" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="14">
-      <c r="C14" s="1">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C14" s="1" t="e">
         <f>VLOOKUP(B14,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D14" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="15">
-      <c r="C15" s="1">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C15" s="1" t="e">
         <f>VLOOKUP(B15,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D15" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D15" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="16">
-      <c r="C16" s="1">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C16" s="1" t="e">
         <f>VLOOKUP(B16,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D16" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D16" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="17">
-      <c r="C17" s="1">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C17" s="1" t="e">
         <f>VLOOKUP(B17,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D17" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D17" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="18">
-      <c r="C18" s="1">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C18" s="1" t="e">
         <f>VLOOKUP(B18,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D18" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="19">
-      <c r="C19" s="1">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C19" s="1" t="e">
         <f>VLOOKUP(B19,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D19" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="20">
-      <c r="C20" s="1">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C20" s="1" t="e">
         <f>VLOOKUP(B20,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D20" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D20" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="21">
-      <c r="C21" s="1">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C21" s="1" t="e">
         <f>VLOOKUP(B21,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D21" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D21" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="22">
-      <c r="C22" s="1">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C22" s="1" t="e">
         <f>VLOOKUP(B22,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D22" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D22" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="23">
-      <c r="C23" s="1">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C23" s="1" t="e">
         <f>VLOOKUP(B23,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D23" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D23" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="24">
-      <c r="C24" s="1">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C24" s="1" t="e">
         <f>VLOOKUP(B24,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D24" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D24" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="25">
-      <c r="C25" s="1">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C25" s="1" t="e">
         <f>VLOOKUP(B25,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D25" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D25" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="26">
-      <c r="C26" s="1">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C26" s="1" t="e">
         <f>VLOOKUP(B26,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D26" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D26" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="27">
-      <c r="C27" s="1">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C27" s="1" t="e">
         <f>VLOOKUP(B27,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D27" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D27" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="28">
-      <c r="C28" s="1">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C28" s="1" t="e">
         <f>VLOOKUP(B28,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D28" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D28" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="29">
-      <c r="C29" s="1">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C29" s="1" t="e">
         <f>VLOOKUP(B29,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D29" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D29" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="30">
-      <c r="C30" s="1">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C30" s="1" t="e">
         <f>VLOOKUP(B30,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D30" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D30" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="31">
-      <c r="C31" s="1">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C31" s="1" t="e">
         <f>VLOOKUP(B31,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D31" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D31" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="32">
-      <c r="C32" s="1">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C32" s="1" t="e">
         <f>VLOOKUP(B32,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D32" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D32" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="33">
-      <c r="C33" s="1">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C33" s="1" t="e">
         <f>VLOOKUP(B33,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D33" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D33" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="34">
-      <c r="C34" s="1">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C34" s="1" t="e">
         <f>VLOOKUP(B34,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D34" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D34" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="35">
-      <c r="C35" s="1">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C35" s="1" t="e">
         <f>VLOOKUP(B35,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D35" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D35" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="36">
-      <c r="C36" s="1">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C36" s="1" t="e">
         <f>VLOOKUP(B36,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D36" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D36" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="37">
-      <c r="C37" s="1">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C37" s="1" t="e">
         <f>VLOOKUP(B37,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D37" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D37" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="38">
-      <c r="C38" s="1">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C38" s="1" t="e">
         <f>VLOOKUP(B38,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D38" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D38" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="39">
-      <c r="C39" s="1">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C39" s="1" t="e">
         <f>VLOOKUP(B39,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D39" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D39" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="40">
-      <c r="C40" s="1">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C40" s="1" t="e">
         <f>VLOOKUP(B40,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D40" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D40" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="41">
-      <c r="C41" s="1">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C41" s="1" t="e">
         <f>VLOOKUP(B41,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D41" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D41" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="42">
-      <c r="C42" s="1">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C42" s="1" t="e">
         <f>VLOOKUP(B42,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D42" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D42" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="43">
-      <c r="C43" s="1">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C43" s="1" t="e">
         <f>VLOOKUP(B43,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D43" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D43" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="44">
-      <c r="C44" s="1">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C44" s="1" t="e">
         <f>VLOOKUP(B44,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D44" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D44" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="45">
-      <c r="C45" s="1">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C45" s="1" t="e">
         <f>VLOOKUP(B45,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D45" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D45" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="46">
-      <c r="C46" s="1">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C46" s="1" t="e">
         <f>VLOOKUP(B46,生徒一覧!$B$3:$C$7,2,0)</f>
-        <v/>
-      </c>
-      <c r="D46" s="1" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D46" s="1">
         <v>45</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col width="9.3984375" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="14.3984375" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col min="2" max="2" width="9.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>生徒番号</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>生徒氏名</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="1" t="n">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="1">
         <v>12345678</v>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>ヤマダ　タロウ</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="1" t="n">
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="1">
         <v>98765432</v>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>タナカ　ジロウ</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="1" t="n">
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="1">
         <v>14785236</v>
       </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>スズキ　ハナコ</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="1" t="n">
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="1">
         <v>96325874</v>
       </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>サトウ　ノブコ</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="1" t="n">
-        <v>50352482</v>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>フクハラ　カイト</t>
-        </is>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="1">
+        <v>15975355</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>